--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -50,6 +50,9 @@
     <t>speed</t>
   </si>
   <si>
+    <t xml:space="preserve">爱好 </t>
+  </si>
+  <si>
     <t>Lucas</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>T</t>
   </si>
   <si>
+    <t>篮球</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
@@ -66,6 +72,27 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>足球</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Jeny</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>羽毛球</t>
+  </si>
+  <si>
+    <t>小明</t>
+  </si>
+  <si>
+    <t>中国</t>
   </si>
 </sst>
 </file>
@@ -1213,18 +1240,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="15.5384615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1246,16 +1273,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>38581</v>
@@ -1264,21 +1294,24 @@
         <v>182.5</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>10.5</v>
       </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>36287</v>
@@ -1287,9 +1320,60 @@
         <v>177.08</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>38239</v>
+      </c>
+      <c r="E6">
+        <v>182.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
         <v>12</v>
       </c>
     </row>

--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -53,6 +53,9 @@
     <t xml:space="preserve">爱好 </t>
   </si>
   <si>
+    <t>whatTime</t>
+  </si>
+  <si>
     <t>Lucas</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>篮球</t>
   </si>
   <si>
+    <t>2024-01-09 14:33:09</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
@@ -77,7 +83,13 @@
     <t>足球</t>
   </si>
   <si>
+    <t>2025-12-09 14:33:10</t>
+  </si>
+  <si>
     <t>Mike</t>
+  </si>
+  <si>
+    <t>2021-01-09 09:19:11</t>
   </si>
   <si>
     <t>Jeny</t>
@@ -708,11 +720,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,18 +1255,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
     <col min="4" max="4" width="15.5384615384615" customWidth="1"/>
+    <col min="9" max="9" width="21.7980769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1276,16 +1292,19 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>38581</v>
@@ -1294,24 +1313,27 @@
         <v>182.5</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>10.5</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>36287</v>
@@ -1320,49 +1342,56 @@
         <v>177.08</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>36900</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>38239</v>
@@ -1371,11 +1400,12 @@
         <v>182.5</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>12</v>
       </c>
+      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29420" windowHeight="7480"/>
+    <workbookView windowWidth="29420" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1358,8 +1358,17 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
       <c r="D4" s="1">
         <v>36900</v>
+      </c>
+      <c r="E4">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
@@ -1374,6 +1383,15 @@
       </c>
       <c r="C5" t="s">
         <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45325</v>
+      </c>
+      <c r="E5">
+        <v>456</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
       </c>
       <c r="G5">
         <v>19</v>
